--- a/2. 개발 스케줄표/1조_2팀_개발계획서_V0.5.xlsx
+++ b/2. 개발 스케줄표/1조_2팀_개발계획서_V0.5.xlsx
@@ -1697,11 +1697,11 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">요구 사항 정의서 </t>
+    <t>2023. 12. 21</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>2023. 12. 21</t>
+    <t>요구 사항 명세서</t>
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
 </sst>
@@ -3077,6 +3077,32 @@
     <xf numFmtId="0" fontId="52" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3091,11 +3117,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3105,31 +3126,10 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3457,7 +3457,7 @@
   <dimension ref="A1:EO968"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3506,34 +3506,34 @@
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="153"/>
-      <c r="AE2" s="153"/>
-      <c r="AF2" s="153"/>
-      <c r="AG2" s="153"/>
-      <c r="AH2" s="153"/>
-      <c r="AI2" s="153"/>
-      <c r="AJ2" s="153"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:145" ht="21" customHeight="1">
       <c r="A3" s="1"/>
@@ -3695,32 +3695,32 @@
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="162" t="s">
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="155"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="155"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="167"/>
+      <c r="Z4" s="167"/>
+      <c r="AA4" s="167"/>
+      <c r="AB4" s="167"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
       <c r="AE4" s="18"/>
       <c r="AF4" s="19"/>
       <c r="AG4" s="15"/>
@@ -3850,32 +3850,32 @@
       <c r="F5" s="105"/>
       <c r="G5" s="105"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="154" t="s">
+      <c r="I5" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="156">
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="168">
         <v>45281</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
       <c r="AE5" s="21"/>
       <c r="AF5" s="19"/>
       <c r="AG5" s="1"/>
@@ -4288,48 +4288,48 @@
     </row>
     <row r="8" spans="1:145" ht="17.25" customHeight="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="159" t="s">
+      <c r="F8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="159" t="s">
+      <c r="G8" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="159" t="s">
+      <c r="H8" s="155" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="108"/>
-      <c r="J8" s="169" t="s">
+      <c r="J8" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="170" t="s">
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="163" t="s">
+      <c r="N8" s="158"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="172" t="s">
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="158"/>
       <c r="V8" s="109"/>
       <c r="W8" s="109"/>
       <c r="X8" s="109"/>
@@ -4369,76 +4369,76 @@
     </row>
     <row r="9" spans="1:145" ht="17.25" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="171">
+      <c r="B9" s="153"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="160">
         <v>11</v>
       </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="165">
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="173">
         <v>12</v>
       </c>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
-      <c r="AJ9" s="160"/>
-      <c r="AK9" s="160"/>
-      <c r="AL9" s="160"/>
-      <c r="AM9" s="160"/>
-      <c r="AN9" s="160"/>
-      <c r="AO9" s="160"/>
-      <c r="AP9" s="160"/>
-      <c r="AQ9" s="160"/>
-      <c r="AR9" s="160"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
-      <c r="AX9" s="160"/>
-      <c r="AY9" s="160"/>
-      <c r="AZ9" s="160"/>
-      <c r="BA9" s="160"/>
-      <c r="BB9" s="160"/>
-      <c r="BC9" s="160"/>
-      <c r="BD9" s="160"/>
-      <c r="BE9" s="166"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
+      <c r="AX9" s="156"/>
+      <c r="AY9" s="156"/>
+      <c r="AZ9" s="156"/>
+      <c r="BA9" s="156"/>
+      <c r="BB9" s="156"/>
+      <c r="BC9" s="156"/>
+      <c r="BD9" s="156"/>
+      <c r="BE9" s="174"/>
     </row>
     <row r="10" spans="1:145" ht="17.25" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
       <c r="I10" s="28">
         <v>13</v>
       </c>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="11" spans="1:145" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A11" s="37"/>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="162" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="51" t="s">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="12" spans="1:145" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A12" s="37"/>
-      <c r="B12" s="173"/>
+      <c r="B12" s="162"/>
       <c r="C12" s="51" t="s">
         <v>21</v>
       </c>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="13" spans="1:145" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="37"/>
-      <c r="B13" s="173"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="51" t="s">
         <v>24</v>
       </c>
@@ -4804,9 +4804,9 @@
     </row>
     <row r="14" spans="1:145" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="37"/>
-      <c r="B14" s="158"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="147" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>16</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="15" spans="1:145" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="37"/>
-      <c r="B15" s="174"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="147" t="s">
         <v>74</v>
       </c>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="17" spans="1:57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="37"/>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="162" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -5077,7 +5077,7 @@
     </row>
     <row r="18" spans="1:57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="37"/>
-      <c r="B18" s="158"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="54" t="s">
         <v>29</v>
       </c>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="19" spans="1:57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A19" s="37"/>
-      <c r="B19" s="158"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="58" t="s">
         <v>30</v>
       </c>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="20" spans="1:57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="37"/>
-      <c r="B20" s="158"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="58" t="s">
         <v>31</v>
       </c>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="21" spans="1:57" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="37"/>
-      <c r="B21" s="174"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="58" t="s">
         <v>32</v>
       </c>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="23" spans="1:57" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="152" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="51" t="s">
@@ -5485,7 +5485,7 @@
     </row>
     <row r="24" spans="1:57" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
-      <c r="B24" s="158"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="51" t="s">
         <v>63</v>
       </c>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="25" spans="1:57" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="37"/>
-      <c r="B25" s="158"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="51" t="s">
         <v>64</v>
       </c>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="26" spans="1:57" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="37"/>
-      <c r="B26" s="158"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="51" t="s">
         <v>61</v>
       </c>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="27" spans="1:57" s="101" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="37"/>
-      <c r="B27" s="168"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="118" t="s">
         <v>65</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>58</v>
       </c>
       <c r="F27" s="120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="121">
         <v>6</v>
@@ -8682,15 +8682,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="I9:Z9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B17:B21"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="I5:N5"/>
     <mergeCell ref="O5:AD5"/>
@@ -8704,6 +8695,15 @@
     <mergeCell ref="O4:AD4"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="AA9:BE9"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="I9:Z9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B17:B21"/>
   </mergeCells>
   <phoneticPr fontId="45" type="noConversion"/>
   <conditionalFormatting sqref="N17:S21">
@@ -9072,13 +9072,13 @@
       <c r="G4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="162" t="s">
+      <c r="H4" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
       <c r="M4" s="76"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
